--- a/Schools.xlsx
+++ b/Schools.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A7CE13-0D5F-4BC7-BBE2-475E2A6BE5EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7BC8B3-3942-474E-8FEF-0A8794C399AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2565" yWindow="915" windowWidth="23310" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kontaktpersoner på skolerne" sheetId="2" r:id="rId1"/>
@@ -1321,8 +1321,8 @@
   <dimension ref="A1:CL384"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1532,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="22">
-        <v>59</v>
+        <v>1120</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>75</v>
